--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503951.4087961866</v>
+        <v>501388.3884602812</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>280.9667343657065</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -716,16 +716,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>43.24208064985483</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>157.404092072496</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>141.0526494037118</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>69.4013403318959</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -871,10 +871,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>252.5062532483149</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.2503089378626</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -914,7 +914,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>75.2228327568951</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4682886668216</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>134.0954408858463</v>
+        <v>150.4834223965034</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>127.214214955562</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>214.1758590541623</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016459</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>109.1623230749892</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.78331078915251</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182112</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>105.11626575513</v>
+        <v>99.97427419833932</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>103.1686991936193</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2811815126418742</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>136.1078891637036</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>80.33989744908955</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3898,16 +3898,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="D43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534452</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1330.099343395678</v>
+        <v>335.0515687555855</v>
       </c>
       <c r="C2" t="n">
-        <v>1330.099343395678</v>
+        <v>335.0515687555855</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2056.333756926872</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1703.565101656758</v>
+        <v>1485.256499056599</v>
       </c>
       <c r="X2" t="n">
-        <v>1330.099343395678</v>
+        <v>1111.790740795519</v>
       </c>
       <c r="Y2" t="n">
-        <v>1330.099343395678</v>
+        <v>721.6514088197073</v>
       </c>
     </row>
     <row r="3">
@@ -4389,13 +4389,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4404,34 +4404,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1715.293511287796</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.63996629486</v>
+        <v>2047.363946463958</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2294.546680296255</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>918.7469765594642</v>
+        <v>342.4631083446099</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1566.343756102885</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1369.715008262746</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1146.736527457482</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1146.736527457482</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1146.736527457482</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>1146.736527457482</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="X4" t="n">
-        <v>918.7469765594642</v>
+        <v>342.4631083446099</v>
       </c>
       <c r="Y4" t="n">
-        <v>918.7469765594642</v>
+        <v>342.4631083446099</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1081.071510755571</v>
+        <v>1099.386652222403</v>
       </c>
       <c r="C5" t="n">
-        <v>1081.071510755571</v>
+        <v>1099.386652222403</v>
       </c>
       <c r="D5" t="n">
-        <v>1081.071510755571</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>1081.071510755571</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
         <v>837.3843300102556</v>
@@ -4562,13 +4562,13 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872917</v>
@@ -4577,40 +4577,40 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W5" t="n">
-        <v>2231.276441056585</v>
+        <v>1876.125824262337</v>
       </c>
       <c r="X5" t="n">
-        <v>1857.810682795505</v>
+        <v>1876.125824262337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1467.671350819693</v>
+        <v>1485.986492286525</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>114.5432626034356</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>299.2648838844856</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>593.9684409159572</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M6" t="n">
-        <v>957.2304598751772</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1344.515588472122</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,16 +4677,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.8971877065476</v>
+        <v>368.9218676324039</v>
       </c>
       <c r="C7" t="n">
-        <v>547.9610047786407</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D7" t="n">
-        <v>471.9783454282416</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1363.692725037735</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1140.71424423247</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>851.5959067363081</v>
       </c>
       <c r="V7" t="n">
-        <v>1347.327782578335</v>
+        <v>596.9114185304212</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.327782578335</v>
+        <v>596.9114185304212</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.338231680317</v>
+        <v>368.9218676324039</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.5456525367873</v>
+        <v>368.9218676324039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1246.899958573734</v>
+        <v>732.1814761616938</v>
       </c>
       <c r="C8" t="n">
-        <v>877.9374416333219</v>
+        <v>732.1814761616938</v>
       </c>
       <c r="D8" t="n">
-        <v>877.9374416333219</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4808,46 +4808,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872918</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926589</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W8" t="n">
-        <v>1633.499798637855</v>
+        <v>1492.247074486895</v>
       </c>
       <c r="X8" t="n">
-        <v>1633.499798637855</v>
+        <v>1118.781316225816</v>
       </c>
       <c r="Y8" t="n">
-        <v>1633.499798637855</v>
+        <v>1118.781316225816</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>1057.327935297105</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2139.945518029432</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>303.9918807365201</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C10" t="n">
-        <v>303.9918807365201</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D10" t="n">
-        <v>303.9918807365201</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>303.9918807365201</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4969,7 +4969,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1507.946913048677</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1284.968432243413</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>995.8500947472505</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V10" t="n">
-        <v>995.8500947472505</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="W10" t="n">
-        <v>706.43292471029</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="X10" t="n">
-        <v>706.43292471029</v>
+        <v>597.1475965504969</v>
       </c>
       <c r="Y10" t="n">
-        <v>485.6403455667598</v>
+        <v>380.808344980636</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,34 +5054,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487566</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831764</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1907.987318831764</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1618.570148794803</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1390.580597896786</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5261,13 +5261,13 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,10 +5276,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,10 +5528,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1057.955258982919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>889.0190760550122</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>738.9024366426764</v>
+        <v>194.8007783998298</v>
       </c>
       <c r="E19" t="n">
-        <v>590.9893430602833</v>
+        <v>194.8007783998298</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5707,16 +5707,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1688.385853854706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1460.396302956689</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1239.603723813159</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5753,19 +5753,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F22" t="n">
-        <v>198.027470314254</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,19 +6069,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.679061850319</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2263.824227505223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.222762528164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6227,7 +6227,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,13 +6710,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6926,22 +6926,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7400,34 +7400,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,22 +7546,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>294.8344935184736</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>154.01690201652</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9556134883073781</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>211.0329012241551</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>60.50016306149467</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>286.8671240721525</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>73.71630725497644</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>284.5101778202801</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.26526345294759</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>109.4223302771056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>144.8013425629423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>40.30478226780292</v>
+        <v>45.44677382459193</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>62.35543909864957</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.09406519747981</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>43.72409101823371</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>43.72409101823371</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>45.44677382459305</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>205.8445769401546</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,16 +25786,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="D43" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>963808.9955732531</v>
+        <v>963808.995573253</v>
       </c>
     </row>
     <row r="3">
@@ -26314,10 +26314,10 @@
         <v>354580.09686312</v>
       </c>
       <c r="C2" t="n">
+        <v>389994.8406855346</v>
+      </c>
+      <c r="D2" t="n">
         <v>389994.8406855348</v>
-      </c>
-      <c r="D2" t="n">
-        <v>389994.8406855347</v>
       </c>
       <c r="E2" t="n">
         <v>383394.634852753</v>
@@ -26329,7 +26329,7 @@
         <v>383394.634852753</v>
       </c>
       <c r="H2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="I2" t="n">
         <v>383394.6348527529</v>
@@ -26338,10 +26338,10 @@
         <v>383394.634852753</v>
       </c>
       <c r="K2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="L2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527527</v>
       </c>
       <c r="M2" t="n">
         <v>383394.634852753</v>
@@ -26350,10 +26350,10 @@
         <v>383394.634852753</v>
       </c>
       <c r="O2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.634852753</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89354.8431189598</v>
+        <v>89354.84311895969</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
         <v>6897.42449670736</v>
@@ -26436,25 +26436,25 @@
         <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707369</v>
       </c>
       <c r="J4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707367</v>
+        <v>6897.424496707365</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707421</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707378</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707361</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-942464.3022716038</v>
+        <v>-942650.695660143</v>
       </c>
       <c r="C6" t="n">
-        <v>165147.3414140651</v>
+        <v>165147.3414140647</v>
       </c>
       <c r="D6" t="n">
-        <v>165147.3414140649</v>
+        <v>165147.3414140652</v>
       </c>
       <c r="E6" t="n">
-        <v>-232110.7610924072</v>
+        <v>-232145.499017843</v>
       </c>
       <c r="F6" t="n">
-        <v>275374.6805321386</v>
+        <v>275339.9426067028</v>
       </c>
       <c r="G6" t="n">
-        <v>275374.6805321385</v>
+        <v>275339.942606703</v>
       </c>
       <c r="H6" t="n">
-        <v>275374.6805321385</v>
+        <v>275339.9426067027</v>
       </c>
       <c r="I6" t="n">
-        <v>275374.6805321384</v>
+        <v>275339.9426067027</v>
       </c>
       <c r="J6" t="n">
-        <v>107769.502722156</v>
+        <v>107734.7647967202</v>
       </c>
       <c r="K6" t="n">
-        <v>275374.6805321384</v>
+        <v>275339.9426067027</v>
       </c>
       <c r="L6" t="n">
-        <v>275374.6805321384</v>
+        <v>275339.9426067025</v>
       </c>
       <c r="M6" t="n">
-        <v>142767.3868032118</v>
+        <v>142732.6488777761</v>
       </c>
       <c r="N6" t="n">
-        <v>275374.6805321385</v>
+        <v>275339.9426067029</v>
       </c>
       <c r="O6" t="n">
-        <v>275374.6805321384</v>
+        <v>275339.9426067027</v>
       </c>
       <c r="P6" t="n">
-        <v>275374.6805321385</v>
+        <v>275339.9426067028</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,35 +26957,35 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>433.9106082241345</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>433.9106082241344</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.8667175913281</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>191.836876644917</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>26.19417169491604</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>32.15623208767774</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,10 +27591,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,13 +27619,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>102.176788372368</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.6257368038488</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>73.39264026131725</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>26.19417169491581</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>215.1455278315667</v>
+        <v>198.7575463209097</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28029,7 +28029,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>67.4482454061755</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>4.408794297932474</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28725,7 +28725,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,28 +31519,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31555,7 +31555,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31604,10 +31604,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31616,7 +31616,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32084,31 +32084,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614911</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,7 +32333,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>364.3208035245835</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>407.217739120397</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33521,16 +33521,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34211,7 +34211,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.584832100039</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>544.5140226420058</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>270.4976243473745</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>63.93583437922477</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>577.9642335061957</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35267,10 +35267,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>310.179692185027</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35337,7 +35337,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394727</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,7 +35981,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>224.339029438562</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983787</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
